--- a/documentation/Data_Dictionary_toothheart.xlsx
+++ b/documentation/Data_Dictionary_toothheart.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RProjects\github\toothheart\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{722A3921-CC6C-4C63-B2A0-0E6F9C0E53F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEFCC71F-ACFE-43A1-AEBC-BED1BD1DF6AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17685" yWindow="-15420" windowWidth="25980" windowHeight="14385" tabRatio="842" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16950" yWindow="-15705" windowWidth="23550" windowHeight="14385" tabRatio="842" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -1368,7 +1368,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="20" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" s="20" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>86</v>
       </c>
